--- a/biology/Zoologie/Charinus_africanus/Charinus_africanus.xlsx
+++ b/biology/Zoologie/Charinus_africanus/Charinus_africanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus africanus est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Guinée équatoriale à Annobón et à Sao Tomé-et-Principe à Sao Tomé et à Principe[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Guinée équatoriale à Annobón et à Sao Tomé-et-Principe à Sao Tomé et à Principe,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charinus africanus mesure jusqu'à 8,4 mm[3].
-La carapace des mâles décrits par Miranda, Giupponi, Prendini et Scharff en 2021 mesure de 2,74 à 2,85 mm de long sur de 3,88 à 4,10 mm et celle des femelles de 2,50 à 3,00 mm de long sur de 3,64 à 4,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charinus africanus mesure jusqu'à 8,4 mm.
+La carapace des mâles décrits par Miranda, Giupponi, Prendini et Scharff en 2021 mesure de 2,74 à 2,85 mm de long sur de 3,88 à 4,10 mm et celle des femelles de 2,50 à 3,00 mm de long sur de 3,64 à 4,25 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Afrique.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hansen, 1921 : « The Pedipalpi, Ricinulei, and Opiliones (exc. Op. Laniatores) collected by Mr. Leonardo Fea in tropical West Africa and adjacent islands. » Studies on Arthropoda. Vol. 1. Gyldendalske Boghandel, p. 1–55 (texte intégral).</t>
         </is>
